--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a02774ed8d28bca/Desktop/NTU/NTU_Y1S2/SC2002/Assignment/BTO_Application/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racshanyaa/Documents/GitHub/SC2002-BTO-V3/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47DAFDC9-5A73-45E6-B73F-8CFF7844F1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B8113E-C9CD-4347-9D01-97614C414291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A3D7CCAD-0F3E-41F5-B920-33C4AF4440B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A3D7CCAD-0F3E-41F5-B920-33C4AF4440B4}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectEnquiry" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NRIC</t>
+  </si>
+  <si>
+    <t>PROJECT ID</t>
+  </si>
+  <si>
+    <t>ENQUIRY</t>
+  </si>
+  <si>
+    <t>REPLY</t>
+  </si>
+  <si>
+    <t>ENQUIRY_DATE</t>
+  </si>
+  <si>
+    <t>REPLY_DATE</t>
+  </si>
+  <si>
+    <t>S1234567A</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>T7654321B</t>
+  </si>
+  <si>
+    <t>Hello to You!</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,8 +537,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -875,12 +915,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806557D-9436-4A10-9BD6-85E3C8C8CAFC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.83203125" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.83203125" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6640625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>45764.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>45764.81342239583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45764</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racshanyaa/Documents/GitHub/SC2002-BTO-V3/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a02774ed8d28bca/Documents/GitHub/SC2002-BTO-V3/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B8113E-C9CD-4347-9D01-97614C414291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{68B8113E-C9CD-4347-9D01-97614C414291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CA6BF3D-66D5-42EE-8BE7-E77B17AF210D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A3D7CCAD-0F3E-41F5-B920-33C4AF4440B4}"/>
+    <workbookView xWindow="1073" yWindow="1013" windowWidth="11100" windowHeight="11767" xr2:uid="{A3D7CCAD-0F3E-41F5-B920-33C4AF4440B4}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectEnquiry" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -52,7 +52,22 @@
     <t>T7654321B</t>
   </si>
   <si>
-    <t>Hello to You!</t>
+    <t>eeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeee</t>
+  </si>
+  <si>
+    <t>eeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeee</t>
+  </si>
+  <si>
+    <t>Hello!</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>heii</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -918,17 +933,18 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.83203125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.83203125" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="13.265625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -951,30 +967,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
-        <v>3.0</v>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="n">
-        <v>45764.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>45764.81342239583</v>
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>45765.895975347223</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>

--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>fe,feof</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -930,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806557D-9436-4A10-9BD6-85E3C8C8CAFC}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -1004,6 +1013,57 @@
         <v>45764</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45767.27149535879</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45767.27272072917</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>45767.28304898148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -77,13 +77,42 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>fsdfefsa</t>
+  </si>
+  <si>
+    <t>Sun Apr 20 20:33:23 GMT+08:00 2025</t>
+  </si>
+  <si>
+    <t>fasfsafasdsadas</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>123221daskdaskd</t>
+  </si>
+  <si>
+    <t>asojfasdsa</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>fewuofffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-MM-dd HH:mm:ss"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,9 +590,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -997,20 +1032,26 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="n">
+        <v>2.0</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1">
-        <v>45764</v>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="n" s="7">
+        <v>45764.0</v>
+      </c>
+      <c r="G3" t="n" s="7">
+        <v>45767.87215314815</v>
       </c>
     </row>
     <row r="4">
@@ -1024,10 +1065,10 @@
         <v>1.0</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="n">
-        <v>45767.27149535879</v>
+        <v>22</v>
+      </c>
+      <c r="F4" t="n" s="2">
+        <v>45767.86123221065</v>
       </c>
     </row>
     <row r="5">
@@ -1041,10 +1082,10 @@
         <v>4.0</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="n">
-        <v>45767.27272072917</v>
+        <v>24</v>
+      </c>
+      <c r="F5" t="n" s="4">
+        <v>45767.863230428244</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1099,10 @@
         <v>2.0</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="n">
-        <v>45767.28304898148</v>
+        <v>25</v>
+      </c>
+      <c r="F6" t="n" s="5">
+        <v>45767.863324502316</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>fewuofffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
+  </si>
+  <si>
+    <t>fuck u</t>
+  </si>
+  <si>
+    <t>T2109876H</t>
   </si>
 </sst>
 </file>
@@ -590,9 +596,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -974,7 +985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806557D-9436-4A10-9BD6-85E3C8C8CAFC}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -1065,10 +1076,10 @@
         <v>1.0</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="n" s="2">
-        <v>45767.86123221065</v>
+        <v>15</v>
+      </c>
+      <c r="F4" t="n" s="10">
+        <v>45768.54076372685</v>
       </c>
     </row>
     <row r="5">
@@ -1101,8 +1112,31 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="n" s="5">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="n" s="11">
         <v>45767.863324502316</v>
+      </c>
+      <c r="G6" t="n" s="11">
+        <v>45768.54186474537</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="n" s="12">
+        <v>45768.54314126157</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>T2109876H</t>
+  </si>
+  <si>
+    <t>hehehaha</t>
   </si>
 </sst>
 </file>
@@ -596,9 +599,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -985,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806557D-9436-4A10-9BD6-85E3C8C8CAFC}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -1133,10 +1141,78 @@
         <v>1.0</v>
       </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n" s="14">
+        <v>45769.11760489584</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="n" s="13">
+        <v>45769.11574813657</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="n" s="15">
+        <v>45769.12312082176</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="n" s="16">
+        <v>45769.15521938657</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="n" s="12">
-        <v>45768.54314126157</v>
+      <c r="F11" t="n" s="17">
+        <v>45769.1552715625</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>hehehaha</t>
+  </si>
+  <si>
+    <t>T1234567J</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>T2345678D</t>
+  </si>
+  <si>
+    <t>hello how do i do this</t>
   </si>
 </sst>
 </file>
@@ -599,9 +611,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -993,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806557D-9436-4A10-9BD6-85E3C8C8CAFC}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -1031,14 +1048,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="C2" t="n">
+        <v>3.0</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1046,8 +1063,8 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
-        <v>45765.895975347223</v>
+      <c r="G2" t="n" s="21">
+        <v>45769.88321890046</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1213,6 +1230,40 @@
       </c>
       <c r="F11" t="n" s="17">
         <v>45769.1552715625</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="n" s="18">
+        <v>45769.78912310185</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="n" s="22">
+        <v>45769.89216858796</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>hello how do i do this</t>
+  </si>
+  <si>
+    <t>hello hello</t>
   </si>
 </sst>
 </file>
@@ -611,9 +614,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1081,13 +1085,13 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="n" s="7">
+        <v>35</v>
+      </c>
+      <c r="F3" t="n" s="23">
         <v>45764.0</v>
       </c>
-      <c r="G3" t="n" s="7">
-        <v>45767.87215314815</v>
+      <c r="G3" t="n" s="23">
+        <v>45769.925410208336</v>
       </c>
     </row>
     <row r="4">

--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a02774ed8d28bca/Documents/GitHub/SC2002-BTO-V3/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{68B8113E-C9CD-4347-9D01-97614C414291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CA6BF3D-66D5-42EE-8BE7-E77B17AF210D}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{68B8113E-C9CD-4347-9D01-97614C414291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3F97E0A-33FA-4EF3-AEA8-22D143D3B8A0}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="1013" windowWidth="11100" windowHeight="11767" xr2:uid="{A3D7CCAD-0F3E-41F5-B920-33C4AF4440B4}"/>
+    <workbookView xWindow="1710" yWindow="1013" windowWidth="14580" windowHeight="11767" xr2:uid="{A3D7CCAD-0F3E-41F5-B920-33C4AF4440B4}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectEnquiry" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -58,42 +58,12 @@
     <t>eeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeee</t>
   </si>
   <si>
-    <t>Hello!</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>heii</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>hi</t>
   </si>
   <si>
-    <t>fe,feof</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
-    <t>fsdfefsa</t>
-  </si>
-  <si>
-    <t>Sun Apr 20 20:33:23 GMT+08:00 2025</t>
-  </si>
-  <si>
-    <t>fasfsafasdsadas</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>123221daskdaskd</t>
   </si>
   <si>
@@ -106,9 +76,6 @@
     <t>fewuofffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
   </si>
   <si>
-    <t>fuck u</t>
-  </si>
-  <si>
     <t>T2109876H</t>
   </si>
   <si>
@@ -118,13 +85,13 @@
     <t>T1234567J</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>T2345678D</t>
   </si>
   <si>
-    <t>hello how do i do this</t>
+    <t>d</t>
+  </si>
+  <si>
+    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -132,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-MM-dd HH:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -611,30 +578,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1010,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806557D-9436-4A10-9BD6-85E3C8C8CAFC}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -1018,10 +964,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.265625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" width="13.265625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.46484375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -1048,14 +994,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="n">
-        <v>1.0</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
-        <v>3.0</v>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1063,207 +1009,190 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="n" s="21">
-        <v>45769.88321890046</v>
+      <c r="G2" s="1">
+        <v>45769.883218900461</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="n">
-        <v>2.0</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.0</v>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="n" s="7">
-        <v>45764.0</v>
-      </c>
-      <c r="G3" t="n" s="7">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45764</v>
+      </c>
+      <c r="G3" s="1">
         <v>45767.87215314815</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.0</v>
+      <c r="C4">
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="n" s="10">
-        <v>45768.54076372685</v>
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45767.863230428244</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.0</v>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="n" s="4">
-        <v>45767.863230428244</v>
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45767.863324502316</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45768.54186474537</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45769.117604895837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="n" s="11">
-        <v>45767.863324502316</v>
-      </c>
-      <c r="G6" t="n" s="11">
-        <v>45768.54186474537</v>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45769.115748136574</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="n" s="14">
-        <v>45769.11760489584</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7.0</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.0</v>
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="n" s="13">
-        <v>45769.11574813657</v>
+      <c r="F8" s="1">
+        <v>45769.123120821758</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.0</v>
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="n" s="15">
-        <v>45769.12312082176</v>
+        <v>16</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45769.155219386572</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9.0</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.0</v>
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="n" s="16">
-        <v>45769.15521938657</v>
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45769.1552715625</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="n" s="17">
-        <v>45769.1552715625</v>
+        <v>22</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45770.030081643519</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11.0</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="n" s="18">
-        <v>45769.78912310185</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="n" s="22">
-        <v>45769.89216858796</v>
+        <v>23</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45770.003483518522</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racshanyaa/Documents/GitHub/SC2002-BTO-V3/resources/data/"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -42,13 +42,23 @@
   <si>
     <t>REPLY_DATE</t>
   </si>
+  <si>
+    <t>S1234567A</t>
+  </si>
+  <si>
+    <t>what is going on</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-MM-dd HH:mm:ss"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -527,9 +537,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -905,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806557D-9436-4A10-9BD6-85E3C8C8CAFC}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="A2:G12"/>
@@ -913,10 +926,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -977,6 +990,46 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n" s="2">
+        <v>45770.229960462966</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="n" s="4">
+        <v>45770.31513549769</v>
+      </c>
+      <c r="G14" t="n" s="4">
+        <v>45770.31800811343</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -537,9 +537,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -918,7 +919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806557D-9436-4A10-9BD6-85E3C8C8CAFC}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="A2:G12"/>
@@ -1030,6 +1031,23 @@
         <v>45770.31800811343</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="n" s="5">
+        <v>45770.53296790509</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -537,10 +537,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -919,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806557D-9436-4A10-9BD6-85E3C8C8CAFC}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="A2:G12"/>
@@ -1031,23 +1030,6 @@
         <v>45770.31800811343</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="n" s="5">
-        <v>45770.53296790509</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racshanyaa/Documents/GitHub/SC2002-BTO-V3/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a02774ed8d28bca/Documents/GitHub/SC2002-BTO-V3/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3695EE-5FE3-6947-AE5B-92F44085647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0B3695EE-5FE3-6947-AE5B-92F44085647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ABA3BC8-DCF2-492A-BD72-074202D7595E}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="1020" windowWidth="14580" windowHeight="11760" xr2:uid="{A3D7CCAD-0F3E-41F5-B920-33C4AF4440B4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A3D7CCAD-0F3E-41F5-B920-33C4AF4440B4}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectEnquiry" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>S9876543C</t>
+  </si>
+  <si>
+    <t>falllll</t>
+  </si>
+  <si>
+    <t>testttt</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -537,9 +549,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -919,21 +934,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806557D-9436-4A10-9BD6-85E3C8C8CAFC}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="A2:G12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.46484375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -956,96 +971,84 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45770.229960462966</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45770.315135497687</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45770.318008113427</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F4" s="1"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n" s="8">
+        <v>45770.60340975694</v>
+      </c>
+      <c r="G4" t="n" s="8">
+        <v>45770.65246978009</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="n" s="2">
-        <v>45770.229960462966</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="n" s="4">
-        <v>45770.31513549769</v>
-      </c>
-      <c r="G14" t="n" s="4">
-        <v>45770.31800811343</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="n" s="5">
-        <v>45770.53296790509</v>
+      <c r="F5" t="n" s="4">
+        <v>45770.63536047454</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -934,7 +934,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806557D-9436-4A10-9BD6-85E3C8C8CAFC}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -973,81 +973,64 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>45770.229960462966</v>
+        <v>45770.315135497687</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45770.318008113427</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="n">
+        <v>4.0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45770.315135497687</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45770.318008113427</v>
+        <v>13</v>
+      </c>
+      <c r="F3" t="n" s="8">
+        <v>45770.60340975694</v>
+      </c>
+      <c r="G3" t="n" s="8">
+        <v>45770.65246978009</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4">
       <c r="A4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="n" s="8">
-        <v>45770.60340975694</v>
-      </c>
-      <c r="G4" t="n" s="8">
-        <v>45770.65246978009</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="n" s="4">
+      <c r="F4" t="n" s="4">
         <v>45770.63536047454</v>
       </c>
     </row>

--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a02774ed8d28bca/Documents/GitHub/SC2002-BTO-V3/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0B3695EE-5FE3-6947-AE5B-92F44085647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ABA3BC8-DCF2-492A-BD72-074202D7595E}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0B3695EE-5FE3-6947-AE5B-92F44085647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E42CCC-029A-4D6F-92A9-742EECCA08C4}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A3D7CCAD-0F3E-41F5-B920-33C4AF4440B4}"/>
+    <workbookView xWindow="3953" yWindow="1013" windowWidth="14580" windowHeight="11767" xr2:uid="{A3D7CCAD-0F3E-41F5-B920-33C4AF4440B4}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectEnquiry" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -55,13 +55,10 @@
     <t>S9876543C</t>
   </si>
   <si>
-    <t>falllll</t>
-  </si>
-  <si>
-    <t>testttt</t>
-  </si>
-  <si>
     <t>??</t>
+  </si>
+  <si>
+    <t>nothingg is going on</t>
   </si>
 </sst>
 </file>
@@ -549,15 +546,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
@@ -615,6 +606,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -972,20 +967,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="C2" t="n">
+        <v>1.0</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="2">
         <v>45770.229960462966</v>
+      </c>
+      <c r="G2" t="n" s="2">
+        <v>45771.69090462963</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -996,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1012,43 +1013,43 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="n">
-        <v>4.0</v>
+      <c r="A4">
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.0</v>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="n" s="8">
-        <v>45770.60340975694</v>
-      </c>
-      <c r="G4" t="n" s="8">
-        <v>45770.65246978009</v>
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45770.603409756943</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45770.652469780092</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5.0</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
-        <v>5.0</v>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="n" s="4">
-        <v>45770.63536047454</v>
+      <c r="F5" s="1">
+        <v>45770.635360474538</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data/ProjectEnquiry.xlsx
+++ b/resources/data/ProjectEnquiry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a02774ed8d28bca/Documents/GitHub/SC2002-BTO-V3/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racshanyaa/Documents/GitHub/SC2002-BTO-V3/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0B3695EE-5FE3-6947-AE5B-92F44085647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ABA3BC8-DCF2-492A-BD72-074202D7595E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9460F52-7846-BF4C-8859-4E130DF93610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A3D7CCAD-0F3E-41F5-B920-33C4AF4440B4}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="21800" windowHeight="12980" xr2:uid="{A3D7CCAD-0F3E-41F5-B920-33C4AF4440B4}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectEnquiry" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -46,19 +46,10 @@
     <t>S1234567A</t>
   </si>
   <si>
-    <t>what is going on</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
     <t>S9876543C</t>
-  </si>
-  <si>
-    <t>falllll</t>
-  </si>
-  <si>
-    <t>testttt</t>
   </si>
   <si>
     <t>??</t>
@@ -68,9 +59,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-MM-dd HH:mm:ss"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -549,16 +539,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -937,18 +920,18 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.46484375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -982,10 +965,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
         <v>45770.315135497687</v>
@@ -994,44 +977,44 @@
         <v>45770.318008113427</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="n">
-        <v>4.0</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" s="1">
+        <v>45770.603409756943</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45770.652469780092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="n" s="8">
-        <v>45770.60340975694</v>
-      </c>
-      <c r="G3" t="n" s="8">
-        <v>45770.65246978009</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.0</v>
+      <c r="C4">
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="n" s="4">
-        <v>45770.63536047454</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45770.635360474538</v>
       </c>
     </row>
   </sheetData>
